--- a/data/data_selection/data_combination.xlsx
+++ b/data/data_selection/data_combination.xlsx
@@ -8,12 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chxmr/code/agage-archive/data/data_selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7564175-ECE2-3446-AB2E-CD06F3645D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4159C10B-4BF5-A141-8C38-30C72F362178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2880" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{9985A75E-EB26-5749-BA8E-B1A91FE63120}"/>
   </bookViews>
   <sheets>
     <sheet name="CGO" sheetId="1" r:id="rId1"/>
+    <sheet name="MHD" sheetId="2" r:id="rId2"/>
+    <sheet name="THD" sheetId="3" r:id="rId3"/>
+    <sheet name="RPB" sheetId="4" r:id="rId4"/>
+    <sheet name="SMO" sheetId="5" r:id="rId5"/>
+    <sheet name="ZEP" sheetId="6" r:id="rId6"/>
+    <sheet name="CMN" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -63,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="29">
   <si>
     <t># File specifying when to use the various ALE/GAGE/AGAGE instruments</t>
   </si>
@@ -156,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,12 +177,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -738,4 +738,616 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC29711F-13B8-9140-B473-D8767E35D5EB}">
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160591D1-02F5-5E4D-B7FE-18CBFE4B0D82}">
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CA49D9-7FA7-1249-B393-DC69D0A3EC82}">
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45BA512-5AE4-3C4F-BEFD-5BBCD1F01554}">
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42BA6F3-6164-0740-9787-95981F3E2AF1}">
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282330B1-5456-C947-8C60-CDB83BC163C1}">
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/data_selection/data_combination.xlsx
+++ b/data/data_selection/data_combination.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chxmr/code/agage-archive/data/data_selection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4159C10B-4BF5-A141-8C38-30C72F362178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0288E0D-E5AF-4E49-A82D-95B3D8E9601E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{9985A75E-EB26-5749-BA8E-B1A91FE63120}"/>
+    <workbookView xWindow="3000" yWindow="1100" windowWidth="27240" windowHeight="16440" activeTab="8" xr2:uid="{9985A75E-EB26-5749-BA8E-B1A91FE63120}"/>
   </bookViews>
   <sheets>
     <sheet name="CGO" sheetId="1" r:id="rId1"/>
-    <sheet name="MHD" sheetId="2" r:id="rId2"/>
-    <sheet name="THD" sheetId="3" r:id="rId3"/>
-    <sheet name="RPB" sheetId="4" r:id="rId4"/>
-    <sheet name="SMO" sheetId="5" r:id="rId5"/>
-    <sheet name="ZEP" sheetId="6" r:id="rId6"/>
-    <sheet name="CMN" sheetId="7" r:id="rId7"/>
+    <sheet name="CMO" sheetId="9" r:id="rId2"/>
+    <sheet name="MHD" sheetId="2" r:id="rId3"/>
+    <sheet name="THD" sheetId="3" r:id="rId4"/>
+    <sheet name="RPB" sheetId="4" r:id="rId5"/>
+    <sheet name="SMO" sheetId="5" r:id="rId6"/>
+    <sheet name="ZEP" sheetId="6" r:id="rId7"/>
+    <sheet name="JFJ" sheetId="10" r:id="rId8"/>
+    <sheet name="CMN" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -68,8 +70,26 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={7DCF18E1-94DA-554A-8653-1E79DC5E2D8B}</author>
+  </authors>
+  <commentList>
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{7DCF18E1-94DA-554A-8653-1E79DC5E2D8B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Omitting for now, because there’s no  scale information in the files. Change back to : 2014-03-27 01:18</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="71">
   <si>
     <t># File specifying when to use the various ALE/GAGE/AGAGE instruments</t>
   </si>
@@ -156,13 +176,139 @@
   </si>
   <si>
     <t>cfc-11</t>
+  </si>
+  <si>
+    <t>cfc-12</t>
+  </si>
+  <si>
+    <t>ccl4</t>
+  </si>
+  <si>
+    <t>n2o</t>
+  </si>
+  <si>
+    <t>cfc-113</t>
+  </si>
+  <si>
+    <t>1994-02-17 20:00</t>
+  </si>
+  <si>
+    <t>hfc-125</t>
+  </si>
+  <si>
+    <t>hfc-134a</t>
+  </si>
+  <si>
+    <t>hfc-152a</t>
+  </si>
+  <si>
+    <t>hfc-365mfc</t>
+  </si>
+  <si>
+    <t>hcfc-22</t>
+  </si>
+  <si>
+    <t>hcfc-141b</t>
+  </si>
+  <si>
+    <t>hcfc-142b</t>
+  </si>
+  <si>
+    <t>h-1211</t>
+  </si>
+  <si>
+    <t>h-1301</t>
+  </si>
+  <si>
+    <t>ch3cl</t>
+  </si>
+  <si>
+    <t>ch3br</t>
+  </si>
+  <si>
+    <t>ch2cl2</t>
+  </si>
+  <si>
+    <t>chcl3</t>
+  </si>
+  <si>
+    <t>hfc-227ea</t>
+  </si>
+  <si>
+    <t>pce</t>
+  </si>
+  <si>
+    <t>2004-02-04 14:40</t>
+  </si>
+  <si>
+    <t>2003-11-15 16:50</t>
+  </si>
+  <si>
+    <t>2014-03-27 01:18</t>
+  </si>
+  <si>
+    <t>2012-05-16 00:00</t>
+  </si>
+  <si>
+    <t>2011-07-01 00:00</t>
+  </si>
+  <si>
+    <t>2010-11-30 00:00</t>
+  </si>
+  <si>
+    <t>2014-06-30 00:00</t>
+  </si>
+  <si>
+    <t>1985-10-28 21:15</t>
+  </si>
+  <si>
+    <t>1985-08-13 16:36</t>
+  </si>
+  <si>
+    <t>2005-07-31 00:00</t>
+  </si>
+  <si>
+    <t>2010-10-31 00:00</t>
+  </si>
+  <si>
+    <t>2017-02-15 00:00</t>
+  </si>
+  <si>
+    <t>1996-06-08 00:00</t>
+  </si>
+  <si>
+    <t>1985-07-20 00:00</t>
+  </si>
+  <si>
+    <t>1996-08-18 00:00</t>
+  </si>
+  <si>
+    <t>2006-05-28 03:12</t>
+  </si>
+  <si>
+    <t>2010-09-02 00:00</t>
+  </si>
+  <si>
+    <t>hfc-245fa</t>
+  </si>
+  <si>
+    <t>2008-04-19 00:00</t>
+  </si>
+  <si>
+    <t>2022-10-09 08:19</t>
+  </si>
+  <si>
+    <t>GCMS-MteCimone end</t>
+  </si>
+  <si>
+    <t>GCMS-MteCimone start</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -178,6 +324,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -187,10 +346,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -199,10 +367,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,12 +705,20 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F9" dT="2023-08-03T19:20:56.95" personId="{34B736E8-4CAD-3843-A1A8-25F59C5B220F}" id="{7DCF18E1-94DA-554A-8653-1E79DC5E2D8B}">
+    <text>Omitting for now, because there’s no  scale information in the files. Change back to : 2014-03-27 01:18</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D736054-8742-4344-BD3B-1940B38914AC}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -546,7 +727,7 @@
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.5" style="1" bestFit="1" customWidth="1"/>
@@ -734,6 +915,639 @@
         <v>15</v>
       </c>
     </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -741,11 +1555,979 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC29711F-13B8-9140-B473-D8767E35D5EB}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02AF7775-65E2-7E48-BA80-42F8CA71CBFC}">
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC29711F-13B8-9140-B473-D8767E35D5EB}">
+  <dimension ref="A1:O29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="5" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160591D1-02F5-5E4D-B7FE-18CBFE4B0D82}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="3" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CA49D9-7FA7-1249-B393-DC69D0A3EC82}">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -753,50 +2535,48 @@
     <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -819,22 +2599,219 @@
         <v>10</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -842,12 +2819,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{160591D1-02F5-5E4D-B7FE-18CBFE4B0D82}">
-  <dimension ref="A1:Q8"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45BA512-5AE4-3C4F-BEFD-5BBCD1F01554}">
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -855,50 +2832,48 @@
     <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -921,328 +2896,219 @@
         <v>10</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95CA49D9-7FA7-1249-B393-DC69D0A3EC82}">
-  <dimension ref="A1:Q8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45BA512-5AE4-3C4F-BEFD-5BBCD1F01554}">
-  <dimension ref="A1:Q8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42BA6F3-6164-0740-9787-95981F3E2AF1}">
-  <dimension ref="A1:Q8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>21</v>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1251,100 +3117,696 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282330B1-5456-C947-8C60-CDB83BC163C1}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42BA6F3-6164-0740-9787-95981F3E2AF1}">
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE54F353-AB0A-D84A-B024-6541A31A2D76}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>21</v>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282330B1-5456-C947-8C60-CDB83BC163C1}">
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
